--- a/RBD/MP_Periods.xlsx
+++ b/RBD/MP_Periods.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <bookViews>
-    <workbookView activeTab="0"/>
-  </bookViews>
-  <sheets>
-    <sheet name="PeriodBudget_MP" sheetId="1" r:id="rId2"/>
-    <sheet name="PeriodParameters_MP" sheetId="2" r:id="rId4"/>
-    <sheet name="PeriodPriority_MP" sheetId="3" r:id="rId5"/>
-    <sheet name="PeriodSpecifications_MP" sheetId="4" r:id="rId6"/>
-  </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr codeName="ThisWorkbook"/>
+  <s:bookViews>
+    <s:workbookView activeTab="3"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="PeriodBudget_MP" sheetId="1" r:id="rId1"/>
+    <s:sheet name="PeriodParameters_MP" sheetId="2" r:id="rId2"/>
+    <s:sheet name="PeriodPriority_MP" sheetId="3" r:id="rId3"/>
+    <s:sheet name="PeriodSpecifications_MP" sheetId="4" r:id="rId4"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
   <si>
     <t>Start</t>
   </si>
@@ -30,15 +31,15 @@
     <t>ID</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>StartOPlanning</t>
   </si>
   <si>
     <t>Priority</t>
   </si>
   <si>
+    <t>PeriodSequence</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
@@ -48,28 +49,25 @@
     <t>Low</t>
   </si>
   <si>
-    <t>PeriodSequence</t>
-  </si>
-  <si>
     <t>FrozenFuturePeriod</t>
   </si>
   <si>
+    <t>NrOfFuturePeriod</t>
+  </si>
+  <si>
+    <t>NrOfHistoricalPeriod</t>
+  </si>
+  <si>
+    <t>NrOfTimeUnit</t>
+  </si>
+  <si>
+    <t>PeriodAlignment</t>
+  </si>
+  <si>
+    <t>TimeUnit</t>
+  </si>
+  <si>
     <t>Months</t>
-  </si>
-  <si>
-    <t>NrOfFuturePeriod</t>
-  </si>
-  <si>
-    <t>NrOfHistoricalPeriod</t>
-  </si>
-  <si>
-    <t>NrOfTimeUnit</t>
-  </si>
-  <si>
-    <t>PeriodAlignment</t>
-  </si>
-  <si>
-    <t>TimeUnit</t>
   </si>
   <si>
     <t>Month</t>
@@ -79,26 +77,27 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="yyyy-mm-dd hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="yyyy-mm-dd hh:mm:ss.00"/>
-    <numFmt numFmtId="169" formatCode="[h]:mm:ss"/>
-    <numFmt numFmtId="170" formatCode="[h]:mm:ss.00"/>
+  <numFmts count="1">
+    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color indexed="9"/>
-      <b/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -109,7 +108,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -117,480 +116,776 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0">
-      <alignment wrapText="true"/>
-    </xf>
+  <cellXfs count="3">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C13"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3">
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="C2">
-        <v>72963048.299166694</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3">
+      <c r="C2" t="n">
+        <v>30069628.41130289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="C3">
-        <v>71867427.705044895</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3">
+      <c r="C3" t="n">
+        <v>30451155.52104158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="C4">
-        <v>67758219.913183302</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3">
+      <c r="C4" t="n">
+        <v>29235395.94287915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="C5">
-        <v>65013737.033724703</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3">
+      <c r="C5" t="n">
+        <v>27621756.92994593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="C6">
-        <v>48136056.297392502</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3">
+      <c r="C6" t="n">
+        <v>21068886.77918181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="C7">
-        <v>36904431.697588198</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3">
+      <c r="C7" t="n">
+        <v>16482197.74908954</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="C8">
-        <v>34961424.177876003</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3">
+      <c r="C8" t="n">
+        <v>15672051.99445239</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="C9">
-        <v>56114105.996214002</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3">
+      <c r="C9" t="n">
+        <v>23791206.67902881</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="C10">
-        <v>46478786.857117198</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3">
+      <c r="C10" t="n">
+        <v>20058428.65129203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="C11">
-        <v>50511419.276554599</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3">
+      <c r="C11" t="n">
+        <v>21531916.73029743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="C12">
-        <v>62666588.1094198</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3">
+      <c r="C12" t="n">
+        <v>26555468.09344389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="C13">
-        <v>37769973.714538097</v>
+      <c r="C13" t="n">
+        <v>17065803.1786648</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>42887</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B26"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G2"/>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>42826</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="3">
-        <v>42826</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>